--- a/Orinoco/Plan_de_test.xlsx
+++ b/Orinoco/Plan_de_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -232,17 +232,10 @@
     <t>83 à 90</t>
   </si>
   <si>
-    <t>Changer la quantité du 1er article et vérifier que return = 0
-Changer la quantité du 2ème article et vérifier que return = 1</t>
-  </si>
-  <si>
     <t>Supprimer le 1er article et vérifier que return = 0
 supprimer le 2ème article et vérifier que return = 2</t>
   </si>
   <si>
-    <t>Si l'index est érroné on modifie la mauvaise qté</t>
-  </si>
-  <si>
     <t>Si l'index est érroné on supprime le mauvais article</t>
   </si>
   <si>
@@ -250,6 +243,76 @@
   </si>
   <si>
     <t>La fonction doit retourner l'index du bouton quantité sélectionné</t>
+  </si>
+  <si>
+    <t>Si l'index est érroné on modifie la quantité d'un autre article</t>
+  </si>
+  <si>
+    <t>removeItemFromLocalStorage</t>
+  </si>
+  <si>
+    <t>94 à 102</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner "item deleted from localStorage"</t>
+  </si>
+  <si>
+    <t>Changer la quantité du 1er article et vérifier que return = 0
+Changer la quantité du 2ème article et vérifier que return = 1
+Vérifier l'interface graphique et la quantité totale du panier</t>
+  </si>
+  <si>
+    <t>Vérifier dans le localStorage que l'élément à supprimer a le même index l'article  sélectionné
++Vérifier l'interface graphique que l'article n'apparait plus</t>
+  </si>
+  <si>
+    <t>updateGoodsInfo</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner "Qty changed"</t>
+  </si>
+  <si>
+    <t>Vérifier 
+1 : que le montant double si on change la qté de 1 à 2
+2 : que le montant = 0 si on supprime tous les articles</t>
+  </si>
+  <si>
+    <t>Si l'index est érroné on supprime le mauvais article.
+L'article ne disparait pas</t>
+  </si>
+  <si>
+    <t>Erreur avec le localStorage et/ou le calcul</t>
+  </si>
+  <si>
+    <t>checkInputsValidity</t>
+  </si>
+  <si>
+    <t>134 à 148</t>
+  </si>
+  <si>
+    <t>106 à 130</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur le bouton "Confirmer votre commande" avant et après chaque champ remplit jusqu’à ne plus avoir de message d'erreur sur le formulaire </t>
+  </si>
+  <si>
+    <t>Champs nom rempli ou incomplet</t>
+  </si>
+  <si>
+    <t>collectContactdetails</t>
+  </si>
+  <si>
+    <t>151 à 174</t>
+  </si>
+  <si>
+    <t>La fonction doit afficher la page confirmation de commande</t>
+  </si>
+  <si>
+    <t>Vérifier que la page "Orinoco - commande" s'affiche, 
+sinon une alerte s'affiche : "L'envoi de la commande a échouée"</t>
   </si>
 </sst>
 </file>
@@ -584,15 +647,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.6328125" style="1" customWidth="1"/>
@@ -839,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -850,13 +913,13 @@
         <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -870,51 +933,121 @@
         <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>

--- a/Orinoco/Plan_de_test.xlsx
+++ b/Orinoco/Plan_de_test.xlsx
@@ -305,14 +305,14 @@
     <t>collectContactdetails</t>
   </si>
   <si>
-    <t>151 à 174</t>
-  </si>
-  <si>
     <t>La fonction doit afficher la page confirmation de commande</t>
   </si>
   <si>
     <t>Vérifier que la page "Orinoco - commande" s'affiche, 
 sinon une alerte s'affiche : "L'envoi de la commande a échouée"</t>
+  </si>
+  <si>
+    <t>152 à 175</t>
   </si>
 </sst>
 </file>
@@ -645,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1007,48 +1007,48 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Orinoco/Plan_de_test.xlsx
+++ b/Orinoco/Plan_de_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Arrêter le serveur ou changer l'URL, la fonction va afficher un message d'erreur</t>
-  </si>
-  <si>
-    <t>Perte ou connexion internet instable</t>
   </si>
   <si>
     <t>connectToServer</t>
@@ -223,9 +220,6 @@
     <t>getQtyChangeIndex</t>
   </si>
   <si>
-    <t>63 à 78</t>
-  </si>
-  <si>
     <t>getButtonRemoveIndex</t>
   </si>
   <si>
@@ -287,24 +281,6 @@
     <t>checkInputsValidity</t>
   </si>
   <si>
-    <t>134 à 148</t>
-  </si>
-  <si>
-    <t>106 à 130</t>
-  </si>
-  <si>
-    <t>La fonction doit retourner "true"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliquer sur le bouton "Confirmer votre commande" avant et après chaque champ remplit jusqu’à ne plus avoir de message d'erreur sur le formulaire </t>
-  </si>
-  <si>
-    <t>Champs nom rempli ou incomplet</t>
-  </si>
-  <si>
-    <t>collectContactdetails</t>
-  </si>
-  <si>
     <t>La fonction doit afficher la page confirmation de commande</t>
   </si>
   <si>
@@ -312,7 +288,103 @@
 sinon une alerte s'affiche : "L'envoi de la commande a échouée"</t>
   </si>
   <si>
-    <t>152 à 175</t>
+    <t>63 à 79</t>
+  </si>
+  <si>
+    <t>106 à 129</t>
+  </si>
+  <si>
+    <t>133 à 195</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner "customer inputs validated"</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton "Confirmer votre commande" avant et après chaque champ remplit jusqu’à ne plus avoir de message d'erreur sur le formulaire ni de message d'alerte si un caractère special est utilisé</t>
+  </si>
+  <si>
+    <t>Champs nom rempli, incomplet ou avec des caratères interdits</t>
+  </si>
+  <si>
+    <t>collectOrderDetails</t>
+  </si>
+  <si>
+    <t>199 à 211</t>
+  </si>
+  <si>
+    <t>ordersummary.js</t>
+  </si>
+  <si>
+    <t>collectItemsToPost</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner "Collection of items to be be posted completed"</t>
+  </si>
+  <si>
+    <t>Vérifier le contenu de la clé "products" dans le localStorage, doit contenir 1 ou + id</t>
+  </si>
+  <si>
+    <t>checkDataConsitencyBeforePost</t>
+  </si>
+  <si>
+    <t>Ajouter un caractère spécial à l'un des champs et le message d'alerte "données utilisateur corrompues"
+Sinon la page affiche les coordonnées de l'utilisateur, le prix et le numéro de commande</t>
+  </si>
+  <si>
+    <t>Utilisateur qui essaie de corrompre les données.</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner 
+cas 1 : "Data consitency validated"
+cas 2 : "Data corrupted" + message d'alerte  "données utilisateur corrompues"</t>
+  </si>
+  <si>
+    <t>postOrder</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner 
+cas 1 : "PostOrder completed " + value.orderId
+cas 2 : "Erreur PosterOrder " + error</t>
+  </si>
+  <si>
+    <t>cas 1 : vérifier qu'un numéro de commande s'affiche.
+Cas 2 : déconnecter le serveur et vérifier le message d'erreur</t>
+  </si>
+  <si>
+    <t>updatePageContent</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner "page updated"</t>
+  </si>
+  <si>
+    <t>Vérifier que la page affiche les coordonnées de l'utilisateur, le prix, le numéro de commande, la date de commande, confirmation envoyée à ""</t>
+  </si>
+  <si>
+    <t>4 à 17</t>
+  </si>
+  <si>
+    <t>21 à 34</t>
+  </si>
+  <si>
+    <t>38 à 68</t>
+  </si>
+  <si>
+    <t>72 à 87</t>
+  </si>
+  <si>
+    <t>Perte ou connexion instable</t>
+  </si>
+  <si>
+    <t>deleteKeyInLocalStorage</t>
+  </si>
+  <si>
+    <t>91 à 98</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner "LocalStorage Keys deleted"</t>
+  </si>
+  <si>
+    <t>Vérifier que les clés sont supprimés du localStorage</t>
   </si>
 </sst>
 </file>
@@ -647,15 +719,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.6328125" style="1" customWidth="1"/>
@@ -690,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -699,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -733,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -744,13 +816,13 @@
     </row>
     <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -759,41 +831,41 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -804,96 +876,96 @@
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -904,152 +976,252 @@
     </row>
     <row r="13" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>42</v>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
